--- a/Excel/TestInfo.xlsx
+++ b/Excel/TestInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="TextInfo" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -27,6 +27,12 @@
   </si>
   <si>
     <t>sex</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
   <si>
     <t>张三</t>
@@ -1015,13 +1021,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -1041,56 +1047,56 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1098,13 +1104,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -1112,15 +1118,29 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
         <v>28</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1136,7 +1156,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
